--- a/示例输入.xlsx
+++ b/示例输入.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mom's Word Card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mom's Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336CBF2-FA94-4F8B-AAB0-D9876D0E7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8AB8D3-A6F5-41A4-9E8C-26D88BD4DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
     <t>vt. 提供；提出；（卖方）出价；贡献
 vi. 提议；出现；求婚
 n. 提议；出价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 花费得起；能够做；承担得起(后果)；提供；给予</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,12 +397,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/示例输入.xlsx
+++ b/示例输入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mom's Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8AB8D3-A6F5-41A4-9E8C-26D88BD4DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769AE50-C51F-4670-BFF6-4520DAB58C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>afford</t>
+    <t>empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/示例输入.xlsx
+++ b/示例输入.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Mom's Flashcards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769AE50-C51F-4670-BFF6-4520DAB58C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155584E6-C72E-42FF-A462-11D9EC00EC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v. 花费得起；能够做；承担得起(后果)；提供；给予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afford</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,10 +407,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
